--- a/tests/data/trade.xlsx
+++ b/tests/data/trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\projects\python\mpl_bsic\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4C326-9C1C-453B-BEDE-ABDC0136C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823159C2-22EE-4577-B13A-065BBF7C9A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="28800" windowHeight="15585" xr2:uid="{49EC3195-5F71-4834-9707-03FD311501A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{49EC3195-5F71-4834-9707-03FD311501A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,17 +399,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAFF8A6-7A4C-42DC-8D08-039A1283AC57}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,850 +420,850 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45245</v>
+        <v>45260</v>
       </c>
       <c r="B2">
         <f ca="1">MAX(20,B3*(1+(RAND()*2-0.85)*0.25))</f>
-        <v>1077.3392771050703</v>
+        <v>874.88801715337581</v>
       </c>
       <c r="C2">
-        <f ca="1">RAND()*100</f>
-        <v>21.184820852195219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f ca="1">(RAND()-0.25)*100</f>
+        <v>48.974034378436116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f ca="1">A2-1</f>
-        <v>45244</v>
+        <v>45259</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="0">MAX(20,B4*(1+(RAND()*2-0.85)*0.25))</f>
-        <v>1038.5869043586722</v>
+        <v>699.46510745218211</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C41" ca="1" si="1">RAND()*100</f>
-        <v>69.37245699410407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C41" ca="1" si="1">(RAND()-0.25)*100</f>
+        <v>23.917191149760054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" ca="1" si="2">A3-1</f>
+        <v>45258</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>568.55766267723368</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10.382692439096042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45257</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>684.14525786051865</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.0242046035626444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>758.343827941933</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>66.323547187996496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45255</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>871.24298162823425</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.203942806532424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45254</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>932.11758581438426</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.410061913260808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45253</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1096.2847962846977</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>68.538286815342275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45252</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>887.84697623142949</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.9018161084445264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45251</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>802.13361137132301</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3596796287303317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45250</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>631.04243430169277</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>62.188740260697436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45249</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>665.10327329599272</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.189519918885804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45248</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>574.96910325412171</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.773552671661708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45247</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>488.55530046496818</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.999037349108931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45246</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>441.75493827725194</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.124422218820596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45245</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>489.33682831904423</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>50.830322140029992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45244</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>615.48662191509504</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.492372290398293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45243</v>
       </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>807.69520703458761</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.721872164852606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>626.34669424049434</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.462750713741165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45242</v>
       </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>727.92764352015297</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.798743356704094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>522.28859901900182</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.996417252753623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45241</v>
       </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>662.1261120616706</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.745363813260983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>603.86159570618656</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>34.514580566828577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45240</v>
       </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>741.85828282520629</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4365460157604701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>565.20566040467463</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.895963151115394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45239</v>
       </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>741.7872603521497</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.691322366581112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>477.40968088910802</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.181432992381668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45238</v>
       </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>686.09691069667861</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.014819352971983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>521.60751230982396</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>32.123849680462335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45237</v>
       </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>595.894528815434</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>47.341914414933775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>406.42238703889609</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.030082650700358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45236</v>
       </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>537.43941004069393</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>75.974533769274828</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>362.78181326623212</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.16173102646423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45235</v>
       </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>575.94295018906496</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.141138874238479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>375.90635826117233</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.920091994168418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45234</v>
       </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>567.83476364382921</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.632737295113174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.27276388793234</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.823448867470319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45233</v>
       </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>445.73236018970852</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>79.072647307989413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>439.46375710116257</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.241847223697244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45232</v>
       </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>359.69379600589383</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>99.534963423883482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>490.0769547726332</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-22.14468307904913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45231</v>
       </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>289.0745903072737</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>88.562526067867523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>392.88275504428856</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.350895875155611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45230</v>
       </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>236.74297158822125</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.499157040668464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>465.16872991343979</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>64.238454369516205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45229</v>
       </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>216.51426022575663</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.095272476109152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>536.28347272197368</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4406473050838224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45228</v>
       </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>193.06442036489196</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1011047121686257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>452.63548897007962</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>70.700209757527233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45227</v>
       </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>205.59516680832698</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.353098413333718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>417.20547795425671</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.770823340474799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45226</v>
       </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>202.51740381642227</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0546202878447106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>367.64287902857126</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.644657192852435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45225</v>
       </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>230.32043783055565</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.165508309840135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>453.71593008129662</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.847898163931063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45224</v>
       </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>237.96837548429735</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>84.24346224966645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>438.3787054295031</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>-19.816495069701755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45223</v>
       </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>230.75430284415984</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6518717436228201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>393.89396879136507</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.656060841562756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45222</v>
       </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>237.46986618901752</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.913648865983312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>420.6572873721953</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.2347643920066425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45221</v>
       </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>212.05172169952482</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>34.291957296731681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>479.84768912980275</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11.724516991646938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45220</v>
       </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>204.76855964771465</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>88.040196535922888</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>409.37062224867589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45219</v>
       </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>189.34165778104534</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>37.972975308248756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>396.72112835822946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45218</v>
       </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>182.75400173317328</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9894938650348699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>411.01969330403904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45217</v>
       </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>176.25599809328074</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.882637084521704</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>467.4342198770405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45216</v>
       </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>160.56407184480258</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>77.545231094716698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.35638342732608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45215</v>
       </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>175.83104242236703</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>89.150704495695834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>342.76950051536176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45214</v>
       </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>142.13317282940838</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>61.819471875081852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>336.90224570013277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45213</v>
       </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>146.97514481919174</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.237239332772646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>335.78213099705971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45212</v>
       </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>167.82714719587432</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8473340040082196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>293.23568261761534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45211</v>
       </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>132.86557378824941</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>50.185890219108074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>310.37784026503789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45210</v>
       </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>154.3702428801073</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.250954189521423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>291.22574139305175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45209</v>
       </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>120.07007081125325</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.062828355688069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>280.53232275560407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45208</v>
       </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>112.07819553757425</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6716246129467809</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>311.99477140576789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45207</v>
       </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>99.914813326324648</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.925056635126985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>389.06394875128962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45206</v>
       </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="0"/>
-        <v>111.60787197689982</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.2726485952943491</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>336.46151474849779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45205</v>
       </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>93.348745006881146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>268.78035247902017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45204</v>
       </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>102.68970990354104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>218.52346832992643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45203</v>
       </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>93.416146915146427</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>197.17490437856708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45202</v>
       </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="0"/>
-        <v>101.86117231613886</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>202.63968883049603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45201</v>
       </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>87.119758061845744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>221.08190522368031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45200</v>
       </c>
-      <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.956925367404594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>259.30828064209749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45199</v>
       </c>
-      <c r="B48">
-        <f t="shared" ca="1" si="0"/>
-        <v>56.243468173261078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>240.13427104619041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45198</v>
       </c>
-      <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.90541339080869</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>199.97466424582635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45197</v>
       </c>
-      <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.752041915436834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>157.78428957702573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45196</v>
       </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>76.350615967253674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.62458859192205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>45195</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.792780705684535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45194</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>84.243709101781008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45193</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>83.649825694445184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45192</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.135475514024037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45191</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.621194063401887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45190</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.90233778201911</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45189</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>58.141658834013761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45188</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>58.055335890299361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45187</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.717028819787053</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45186</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.832838911222822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45185</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.030353287116647</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45184</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.011491501137122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45183</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>51.810066065939139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45182</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>63.704661148992933</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45181</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>80.409956895363777</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45180</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B69" ca="1" si="3">MAX(20,B68*(1+(RAND()*2-0.85)*0.25))</f>
-        <v>70.992022641474307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117.2926314693553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A70" ca="1" si="4">A67-1</f>
-        <v>45179</v>
+        <v>45194</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>88.87617630323281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100.78262564768481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45178</v>
+        <v>45193</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>83.536756874189237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81.232738444769765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45177</v>
+        <v>45192</v>
       </c>
       <c r="B70">
         <v>100</v>
@@ -1275,6 +1275,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="41338608-0dec-410a-bee1-e7182be1dea3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E0B864DBB50EE44DB1E36B3D581E20EF" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3457875b3ed949f44a30805947d39ab8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="41338608-0dec-410a-bee1-e7182be1dea3" xmlns:ns4="455319b5-b166-4905-a6d3-6309612182f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5979315f7915086b6c14d42e91f6b6f9" ns3:_="" ns4:_="">
     <xsd:import namespace="41338608-0dec-410a-bee1-e7182be1dea3"/>
@@ -1463,24 +1480,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7229F3-B9C7-438B-B276-A837D5535947}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="41338608-0dec-410a-bee1-e7182be1dea3"/>
+    <ds:schemaRef ds:uri="455319b5-b166-4905-a6d3-6309612182f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="41338608-0dec-410a-bee1-e7182be1dea3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1E176C5-32F9-402F-851E-83BF341361F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A8801A-B944-4C45-9BAC-90DC8A158EAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1497,29 +1522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1E176C5-32F9-402F-851E-83BF341361F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7229F3-B9C7-438B-B276-A837D5535947}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="41338608-0dec-410a-bee1-e7182be1dea3"/>
-    <ds:schemaRef ds:uri="455319b5-b166-4905-a6d3-6309612182f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>